--- a/00-4f table.xlsx
+++ b/00-4f table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuanjunZhao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6658D04B-C4C5-418E-BC34-BA9F67192FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40753CC9-09F3-4D57-819A-606ECC7BBEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-140" yWindow="-140" windowWidth="38680" windowHeight="21160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="165">
   <si>
     <t>8a</t>
   </si>
@@ -203,21 +203,9 @@
     <t>current fuel in current slot</t>
   </si>
   <si>
-    <t>11 12 13 low midium high Frequency</t>
-  </si>
-  <si>
     <t>reversed</t>
   </si>
   <si>
-    <t>colonist 2: 0 - alive, 1-saved, 2-dead</t>
-  </si>
-  <si>
-    <t>colonist 1: 0 - alive, 1-saved, 2-dead</t>
-  </si>
-  <si>
-    <t>colonist 0: 0 - alive, 1-saved, 2-dead</t>
-  </si>
-  <si>
     <t>number of landers left, 02,01,00, FF &lt;-&gt; no lander left</t>
   </si>
   <si>
@@ -287,9 +275,6 @@
     <t>lander y position -&gt; y coordinate in [0,10]</t>
   </si>
   <si>
-    <t>safe indicator, 00 is not safe, 01 is safe,</t>
-  </si>
-  <si>
     <t>lander orientation + fuel or not:  0x: head left, 1x: head up, 2x: head right.      x7: power up, xf: no power</t>
   </si>
   <si>
@@ -383,18 +368,12 @@
     <t>current music to play, choosed from audio 1,2,3,4 -&gt; address 60 - 68</t>
   </si>
   <si>
-    <t>decresed with game start music music played</t>
-  </si>
-  <si>
     <t>audio 4 pointer, point to the address where colonist is killed by lander music address: f0</t>
   </si>
   <si>
     <t>audio 4 pointer, point to the address where colonist is killed by lander music address: 1b</t>
   </si>
   <si>
-    <t>11 low  Frequency, also used for generate map</t>
-  </si>
-  <si>
     <t>e3</t>
   </si>
   <si>
@@ -407,36 +386,6 @@
     <t>safe landed position 2</t>
   </si>
   <si>
-    <t>b0</t>
-  </si>
-  <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>a6</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>7d</t>
-  </si>
-  <si>
-    <t>7f95</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
     <t>temporary register for calculation -&gt; random seed is audio data</t>
   </si>
   <si>
@@ -479,7 +428,100 @@
     <t>middle colonist on screen address</t>
   </si>
   <si>
-    <t>map end screen address</t>
+    <t>fuel part low memory, would shrink if it is e3</t>
+  </si>
+  <si>
+    <t>fuel part high memory, usually 1F</t>
+  </si>
+  <si>
+    <t>index counter for reading demo operation in 1d20 area</t>
+  </si>
+  <si>
+    <t>counter for how long this opreation last</t>
+  </si>
+  <si>
+    <t>midium Frequency audio counter</t>
+  </si>
+  <si>
+    <t>high Frequency audio counter</t>
+  </si>
+  <si>
+    <t>low  Frequency audio counter</t>
+  </si>
+  <si>
+    <t>decresed with no action, 05-&gt;00, if 00, play demo</t>
+  </si>
+  <si>
+    <t>colonist 0: 0 - on ground, 1-saved, 2-dead</t>
+  </si>
+  <si>
+    <t>colonist 1: 0 - on ground, 1-saved, 2-dead</t>
+  </si>
+  <si>
+    <t>colonist 2: 0 - on ground, 1-saved, 2-dead</t>
+  </si>
+  <si>
+    <t>lander vertical acceleration indicator, when hit safe area 00 is safe, else lander dead</t>
+  </si>
+  <si>
+    <t>lander horizontal acceleration indicator, when hit safe area 00 is safe, else lander dead</t>
+  </si>
+  <si>
+    <t>lander status indicator, 00 is in the air, 01 is in safe area</t>
+  </si>
+  <si>
+    <t>lander y position -&gt; y coordinate on screen (vertical)</t>
+  </si>
+  <si>
+    <t>lander x position -&gt; x coordinate on screen (horizontal)</t>
+  </si>
+  <si>
+    <t>when is odd, orbital docking pad moves right</t>
+  </si>
+  <si>
+    <t>store FF when in the game, use for calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter for docking pad </t>
+  </si>
+  <si>
+    <t>lander horizontal acceleration counter, 0-ff, when overload(ff change to 00), change $45</t>
+  </si>
+  <si>
+    <t>lander vertical acceleration counter, 0-ff, when overload(ff change to 00), change $47</t>
+  </si>
+  <si>
+    <t>lander horizontal speend</t>
+  </si>
+  <si>
+    <t>lander vertical speend</t>
+  </si>
+  <si>
+    <t>screen position of explosion ship left bottom part</t>
+  </si>
+  <si>
+    <t>screen position of explosion ship right top part</t>
+  </si>
+  <si>
+    <t>screen position of explosion ship right bottom part</t>
+  </si>
+  <si>
+    <t>lander head point-to indicator: 07 -&gt; right, 0 -&gt; up, f9-&gt; left</t>
+  </si>
+  <si>
+    <t>lander head point-to indicator: 00 -&gt; right, 0 -&gt; up, ff -&gt; left</t>
+  </si>
+  <si>
+    <t>lander head point-to indicator: f1 -&gt; right, ef -&gt; up, f1 -&gt; left</t>
+  </si>
+  <si>
+    <t>screen position of explosion left top part, map end screen address</t>
+  </si>
+  <si>
+    <t>screen position of explosion ship left top part, map end screen address</t>
+  </si>
+  <si>
+    <t>demo indicator, if is 01, show the demo</t>
   </si>
 </sst>
 </file>
@@ -828,10 +870,10 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="8.7265625" style="2"/>
     <col min="5" max="5" width="61.6328125" style="2" customWidth="1"/>
@@ -846,10 +888,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -860,10 +902,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -874,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -885,10 +927,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -899,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -910,10 +952,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -924,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1089,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B37DF91-A42B-43B0-8D12-4D467A404C63}">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,10 +1145,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1114,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1122,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1130,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1138,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1146,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1154,7 +1196,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1162,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1170,7 +1212,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1178,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1186,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1194,7 +1236,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1202,7 +1244,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1210,7 +1252,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1218,7 +1260,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1226,7 +1268,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1234,7 +1276,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1242,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1250,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1258,7 +1300,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1266,7 +1308,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1274,7 +1316,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1282,7 +1324,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1290,7 +1332,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1298,7 +1340,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1306,7 +1348,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1314,7 +1356,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1322,7 +1364,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1330,7 +1372,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1338,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1346,7 +1388,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1354,7 +1396,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1362,7 +1404,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1370,7 +1412,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1378,7 +1420,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1386,7 +1428,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1394,7 +1436,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1402,7 +1444,7 @@
         <v>24</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1410,7 +1452,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1418,7 +1460,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1426,7 +1468,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1434,7 +1476,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1442,7 +1484,7 @@
         <v>29</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1450,7 +1492,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1458,7 +1500,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1474,7 +1516,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1482,7 +1524,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1490,7 +1532,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1498,7 +1540,7 @@
         <v>30</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1506,7 +1548,7 @@
         <v>31</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1514,7 +1556,7 @@
         <v>32</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1522,7 +1564,7 @@
         <v>33</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1530,7 +1572,7 @@
         <v>34</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1538,7 +1580,7 @@
         <v>35</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1546,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1554,7 +1596,7 @@
         <v>37</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1562,7 +1604,7 @@
         <v>38</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1570,7 +1612,7 @@
         <v>39</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1578,7 +1620,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1586,7 +1628,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1594,7 +1636,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1602,7 +1644,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1610,7 +1652,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1618,223 +1660,273 @@
         <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>40</v>
       </c>
-      <c r="B66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>41</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42</v>
       </c>
-      <c r="B68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>43</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>44</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>45</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>46</v>
       </c>
-      <c r="B72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>47</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>48</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>49</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>50</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>51</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>52</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>53</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>54</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>55</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>56</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>57</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>58</v>
       </c>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>59</v>
       </c>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>60</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -1842,7 +1934,7 @@
         <v>61</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -1850,7 +1942,7 @@
         <v>62</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -1858,7 +1950,7 @@
         <v>63</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -1866,13 +1958,7 @@
         <v>64</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E102" t="s">
-        <v>37</v>
-      </c>
-      <c r="F102" s="1">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -1880,401 +1966,98 @@
         <v>65</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E103" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" s="2">
-        <v>16</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>66</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E104" t="s">
-        <v>37</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>67</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E105" t="s">
-        <v>37</v>
-      </c>
-      <c r="F105" s="2">
-        <v>42</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>68</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E106" t="s">
-        <v>37</v>
-      </c>
-      <c r="F106" s="2">
-        <v>58</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>69</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E107" t="s">
-        <v>37</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E108" t="s">
-        <v>37</v>
-      </c>
-      <c r="F108" s="2">
-        <v>84</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E109" t="s">
-        <v>37</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E110" t="s">
-        <v>37</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E111" t="s">
-        <v>37</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E112" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>128</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E113" t="s">
-        <v>37</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E114" t="s">
-        <v>38</v>
-      </c>
-      <c r="F114" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E115" t="s">
-        <v>38</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E116" t="s">
-        <v>38</v>
-      </c>
-      <c r="F116" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E117" t="s">
-        <v>38</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E118" t="s">
-        <v>38</v>
-      </c>
-      <c r="F118" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E119" t="s">
-        <v>38</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E120" t="s">
-        <v>38</v>
-      </c>
-      <c r="F120" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E121" t="s">
-        <v>38</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E122" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F123" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F124" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F125" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F126" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F127" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F128" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F129" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F130" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F131" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F132" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F133" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F134" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F135" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F136" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F137" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F138" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F139" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F140" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F141" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F142" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F143" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F144" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F145" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F146" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F147" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F148" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F149" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F150" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F151" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F152" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F153" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F154" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F155" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F156" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F157" s="1">
-        <v>49</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F113" s="2"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -2295,39 +2078,25 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>

--- a/00-4f table.xlsx
+++ b/00-4f table.xlsx
@@ -2,20 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuanjunZhao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuanjunZhao\Documents\GitHub\399LunarRescue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40753CC9-09F3-4D57-819A-606ECC7BBEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10249A69-5000-4735-A393-5980D0D1337C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="-140" windowWidth="38680" windowHeight="21160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="useful" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="173">
   <si>
     <t>8a</t>
   </si>
@@ -522,6 +520,30 @@
   </si>
   <si>
     <t>demo indicator, if is 01, show the demo</t>
+  </si>
+  <si>
+    <t>1C00-1CAF</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>special game char sets</t>
+  </si>
+  <si>
+    <t>b0-b9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> special char set for 0-9</t>
+  </si>
+  <si>
+    <t>1CB9-1CC7</t>
+  </si>
+  <si>
+    <t>explosion stage 1-4</t>
+  </si>
+  <si>
+    <t>Special char set</t>
   </si>
 </sst>
 </file>
@@ -866,500 +888,516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B37DF91-A42B-43B0-8D12-4D467A404C63}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="4" width="8.7265625" style="2"/>
-    <col min="5" max="5" width="61.6328125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>85</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>86</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>87</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>88</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>89</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>90</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>91</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>92</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>93</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>94</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>95</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>96</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>97</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>98</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>99</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B37DF91-A42B-43B0-8D12-4D467A404C63}">
-  <dimension ref="A1:F113"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="92.90625" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="8" max="8" width="52.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2" s="2">
+        <v>81</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D4" s="2">
+        <v>83</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D5" s="2">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D6" s="2">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D7" s="2">
+        <v>86</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D8" s="2">
+        <v>87</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D9" s="2">
+        <v>88</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D10" s="2">
+        <v>89</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D17" s="2">
+        <v>90</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" s="2">
+        <v>91</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19" s="2">
+        <v>92</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D20" s="2">
+        <v>93</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D21" s="2">
+        <v>94</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D22" s="2">
+        <v>95</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D23" s="2">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D24" s="2">
+        <v>97</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D25" s="2">
+        <v>98</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D26" s="2">
+        <v>99</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1367,7 +1405,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -1375,7 +1413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1383,7 +1421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1391,7 +1429,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -2065,64 +2103,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B376F-96BE-44E8-9156-6D952091955B}">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>